--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/specialoffer.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/specialoffer.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{F3405196-DB5C-4852-AB97-F047BD44CB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED6E030C-862F-4DD6-A190-0F177BA52936}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{F3405196-DB5C-4852-AB97-F047BD44CB98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{285C240A-5D91-487C-AF98-013B925E7CC3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Active Campaign" sheetId="2" r:id="rId1"/>
+    <sheet name="Version 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="210">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -86,28 +86,40 @@
     <t>Kit</t>
   </si>
   <si>
+    <t>Ultimate Body Coverage Kit Deluxe Kit (Fair/Brunette)</t>
+  </si>
+  <si>
+    <t>Ultimate Body Coverage Kit Deluxe Kit (Light/Brunette)</t>
+  </si>
+  <si>
     <t>Ultimate Body Coverage Kit -Deluxe Kit (Natural/Brunette)</t>
   </si>
   <si>
     <t>Ultimate Body Coverage Kit Deluxe Kit (Golden/Brunette)</t>
   </si>
   <si>
-    <t>Ultimate Body Coverage Kit Deluxe Kit (Fair/Brunette)</t>
-  </si>
-  <si>
     <t>Ultimate Body Coverage Kit Deluxe Kit (Bronze/Brunette)</t>
   </si>
   <si>
-    <t>Body Coverage Starter Kit (Natural/Brunette)</t>
-  </si>
-  <si>
-    <t>Body Coverage Starter Kit  (Golden/Brunette)</t>
-  </si>
-  <si>
-    <t>Body Coverage Starter Kit (Fair/Brunette)</t>
-  </si>
-  <si>
-    <t>Body Coverage Starter Kit  (Bronze/Brunette)</t>
+    <t>Ultimate Body Coverage Kit Deluxe Kit (Deep/Brunette)</t>
+  </si>
+  <si>
+    <t>Flawless Body Essentials - (Fair /Brunette)</t>
+  </si>
+  <si>
+    <t>Flawless Body Essentials - (Light /Brunette)</t>
+  </si>
+  <si>
+    <t>Flawless Body Essentials - (Natural /Brunette)</t>
+  </si>
+  <si>
+    <t>Flawless Body Essentials - (Golden /Brunette)</t>
+  </si>
+  <si>
+    <t>Flawless Body Essentials - (Bronze /Brunette)</t>
+  </si>
+  <si>
+    <t>Flawless Body Essentials - (Deep /Brunette)</t>
   </si>
   <si>
     <t>Actual Kit Name (as in site)</t>
@@ -116,24 +128,30 @@
     <t>Ultimate Body Coverage Kit</t>
   </si>
   <si>
-    <t>Body Coverage Starter Kit</t>
+    <t>Flawless Body Essentials</t>
   </si>
   <si>
     <t>KitShade</t>
   </si>
   <si>
+    <t>Fair Radiance</t>
+  </si>
+  <si>
+    <t>Light Radiance</t>
+  </si>
+  <si>
     <t>Natural Radiance</t>
   </si>
   <si>
     <t>Golden Radiance</t>
   </si>
   <si>
-    <t>Fair Radiance</t>
-  </si>
-  <si>
     <t>Bronze Radiance</t>
   </si>
   <si>
+    <t>Deep Radiance</t>
+  </si>
+  <si>
     <t>PagePattern</t>
   </si>
   <si>
@@ -149,12 +167,12 @@
     <t>Default selection</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Entry Product Group ID</t>
   </si>
   <si>
@@ -167,30 +185,42 @@
     <t>Entry PPID</t>
   </si>
   <si>
+    <t>WY2A0912</t>
+  </si>
+  <si>
+    <t>WY2A0862</t>
+  </si>
+  <si>
     <t>WY2A0894</t>
   </si>
   <si>
     <t>WY2A0903</t>
   </si>
   <si>
-    <t>WY2A0912</t>
-  </si>
-  <si>
     <t>WY2A0922</t>
   </si>
   <si>
+    <t>WY2A0868</t>
+  </si>
+  <si>
+    <t>WY2A0157</t>
+  </si>
+  <si>
+    <t>WY2A0881</t>
+  </si>
+  <si>
     <t>WY2A0155</t>
   </si>
   <si>
     <t>WY2A0156</t>
   </si>
   <si>
-    <t>WY2A0157</t>
-  </si>
-  <si>
     <t>WY2A0158</t>
   </si>
   <si>
+    <t>WY2A0891</t>
+  </si>
+  <si>
     <t>Entry piece count</t>
   </si>
   <si>
@@ -215,28 +245,40 @@
     <t>Entry Renewal Plan</t>
   </si>
   <si>
+    <t>RWYA4B6</t>
+  </si>
+  <si>
+    <t>RWYA4GK</t>
+  </si>
+  <si>
     <t>RWYA4B7</t>
   </si>
   <si>
     <t>RWYA4B8</t>
   </si>
   <si>
-    <t>RWYA4B6</t>
-  </si>
-  <si>
     <t>RWYA4B9</t>
   </si>
   <si>
+    <t>RWYA4GL</t>
+  </si>
+  <si>
+    <t>RWYA34H</t>
+  </si>
+  <si>
+    <t>RWYA4FY</t>
+  </si>
+  <si>
     <t>RWYA33N</t>
   </si>
   <si>
     <t>RWYA33R</t>
   </si>
   <si>
-    <t>RWYA34H</t>
-  </si>
-  <si>
     <t>RWYA34G</t>
+  </si>
+  <si>
+    <t>RWYA4G3</t>
   </si>
   <si>
     <t>Entry Cart Language</t>
@@ -286,55 +328,79 @@
     <t>Post Purchase Upsell to</t>
   </si>
   <si>
+    <t>WY2A0915</t>
+  </si>
+  <si>
+    <t>WY2A0869 </t>
+  </si>
+  <si>
     <t>WY2A0897</t>
   </si>
   <si>
     <t>WY2A0906</t>
   </si>
   <si>
-    <t>WY2A0915</t>
-  </si>
-  <si>
     <t>WY2A0924</t>
   </si>
   <si>
+    <t>WY2A0875 </t>
+  </si>
+  <si>
+    <t>WY2A0141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WY2A0880 </t>
+  </si>
+  <si>
     <t>WY2A0139</t>
   </si>
   <si>
     <t>WY2A0140</t>
   </si>
   <si>
-    <t>WY2A0141</t>
-  </si>
-  <si>
     <t>WY2A0142</t>
   </si>
   <si>
+    <t>WY2A0888</t>
+  </si>
+  <si>
     <t>Post Purchase Renewal Plan</t>
   </si>
   <si>
+    <t>RWYA4BA</t>
+  </si>
+  <si>
+    <t>RWYA4GM</t>
+  </si>
+  <si>
     <t>RWYA4BB</t>
   </si>
   <si>
     <t>RWYA4BC</t>
   </si>
   <si>
-    <t>RWYA4BA</t>
-  </si>
-  <si>
     <t>RWYA4BD</t>
   </si>
   <si>
+    <t>RWYA4GN</t>
+  </si>
+  <si>
+    <t>RWYA34V</t>
+  </si>
+  <si>
+    <t>RWYA4G4</t>
+  </si>
+  <si>
     <t>RWYA34T</t>
   </si>
   <si>
     <t>RWYA34U</t>
   </si>
   <si>
-    <t>RWYA34V</t>
-  </si>
-  <si>
     <t>RWYA34W</t>
+  </si>
+  <si>
+    <t>RWYA4G6</t>
   </si>
   <si>
     <t>Post Purchase Upsell Pricing</t>
@@ -399,13 +465,13 @@
     <t>Post Purchase Upsell Promotion 3</t>
   </si>
   <si>
+    <t>Free Bold &amp; Beautiful Mascara - WY1A0027</t>
+  </si>
+  <si>
     <t xml:space="preserve">Free Bold &amp; Beautiful Mascara - WY1A0027
 </t>
   </si>
   <si>
-    <t>Free Bold &amp; Beautiful Mascara - WY1A0027</t>
-  </si>
-  <si>
     <t>Free Body Duo - Mitt &amp; 24K gold exfoliating stick - WY3A0054,WY1A0200</t>
   </si>
   <si>
@@ -434,30 +500,42 @@
     <t>Continuity PPID</t>
   </si>
   <si>
+    <t>WY2A0927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WY2A0865 </t>
+  </si>
+  <si>
     <t>WY2A0900</t>
   </si>
   <si>
     <t>WY2A0909</t>
   </si>
   <si>
-    <t>WY2A0927</t>
-  </si>
-  <si>
     <t>WY2A0918</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0878 </t>
+  </si>
+  <si>
+    <t>WY2A0129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WY2A0886 </t>
+  </si>
+  <si>
     <t>WY2A0127</t>
   </si>
   <si>
     <t>WY2A0128</t>
   </si>
   <si>
-    <t>WY2A0129</t>
-  </si>
-  <si>
     <t>WY2A0130</t>
   </si>
   <si>
+    <t>WY2A0861</t>
+  </si>
+  <si>
     <t>Continuity Payments</t>
   </si>
   <si>
@@ -524,7 +602,7 @@
     <t>Pre-Purchase Entry Shipping</t>
   </si>
   <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
   <si>
     <t>Pre-Purchase Entry Promotion 1</t>
@@ -578,97 +656,19 @@
     <t>End</t>
   </si>
   <si>
-    <t>Ultimate Body Coverage Kit Deluxe Kit (Light/Brunette)</t>
-  </si>
-  <si>
-    <t>Ultimate Body Coverage Kit Deluxe Kit (Deep/Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body Essentials - (Fair /Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body Essentials - (Light /Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body Essentials - (Natural /Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body Essentials - (Golden /Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body Essentials - (Bronze /Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body Essentials - (Deep /Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body Essentials</t>
-  </si>
-  <si>
-    <t>Light Radiance</t>
-  </si>
-  <si>
-    <t>Deep Radiance</t>
-  </si>
-  <si>
-    <t>WY2A0862</t>
-  </si>
-  <si>
-    <t>WY2A0868</t>
-  </si>
-  <si>
-    <t>WY2A0881</t>
-  </si>
-  <si>
-    <t>WY2A0891</t>
-  </si>
-  <si>
-    <t>RWYA4GK</t>
-  </si>
-  <si>
-    <t>RWYA4GL</t>
-  </si>
-  <si>
-    <t>RWYA4FY</t>
-  </si>
-  <si>
-    <t>RWYA4G3</t>
-  </si>
-  <si>
-    <t>WY2A0869 </t>
-  </si>
-  <si>
-    <t>WY2A0875 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0880 </t>
-  </si>
-  <si>
-    <t>WY2A0888</t>
-  </si>
-  <si>
-    <t>RWYA4GM</t>
-  </si>
-  <si>
-    <t>RWYA4GN</t>
-  </si>
-  <si>
-    <t>RWYA4G4</t>
-  </si>
-  <si>
-    <t>RWYA4G6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0865 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0878 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0886 </t>
-  </si>
-  <si>
-    <t>WY2A0861</t>
+    <t>Body Coverage Starter Kit (Natural/Brunette)</t>
+  </si>
+  <si>
+    <t>Body Coverage Starter Kit  (Golden/Brunette)</t>
+  </si>
+  <si>
+    <t>Body Coverage Starter Kit (Fair/Brunette)</t>
+  </si>
+  <si>
+    <t>Body Coverage Starter Kit  (Bronze/Brunette)</t>
+  </si>
+  <si>
+    <t>Body Coverage Starter Kit</t>
   </si>
 </sst>
 </file>
@@ -1285,6 +1285,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1302,12 +1308,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1624,2033 +1624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J104"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="57.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="16.5">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="21">
-        <v>602</v>
-      </c>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5">
-      <c r="A3" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="21">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="29" customFormat="1" ht="31.5">
-      <c r="A7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="15.75">
-      <c r="A11" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="31">
-        <v>1</v>
-      </c>
-      <c r="C12" s="31">
-        <v>1</v>
-      </c>
-      <c r="D12" s="31">
-        <v>1</v>
-      </c>
-      <c r="E12" s="31">
-        <v>1</v>
-      </c>
-      <c r="F12" s="32">
-        <v>2</v>
-      </c>
-      <c r="G12" s="32">
-        <v>2</v>
-      </c>
-      <c r="H12" s="32">
-        <v>2</v>
-      </c>
-      <c r="I12" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75">
-      <c r="A13" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="33">
-        <v>1</v>
-      </c>
-      <c r="C18" s="33">
-        <v>1</v>
-      </c>
-      <c r="D18" s="33">
-        <v>1</v>
-      </c>
-      <c r="E18" s="33">
-        <v>1</v>
-      </c>
-      <c r="F18" s="34">
-        <v>1</v>
-      </c>
-      <c r="G18" s="35">
-        <v>1</v>
-      </c>
-      <c r="H18" s="35">
-        <v>1</v>
-      </c>
-      <c r="I18" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="40" customFormat="1" ht="15.75">
-      <c r="A19" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="41">
-        <v>59.95</v>
-      </c>
-      <c r="C20" s="42">
-        <v>59.95</v>
-      </c>
-      <c r="D20" s="41">
-        <v>59.95</v>
-      </c>
-      <c r="E20" s="41">
-        <v>59.95</v>
-      </c>
-      <c r="F20" s="43">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G20" s="44">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="H20" s="44">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I20" s="44">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="41">
-        <v>0</v>
-      </c>
-      <c r="C21" s="37">
-        <v>0</v>
-      </c>
-      <c r="D21" s="41">
-        <v>0</v>
-      </c>
-      <c r="E21" s="41">
-        <v>0</v>
-      </c>
-      <c r="F21" s="43">
-        <v>0</v>
-      </c>
-      <c r="G21" s="44">
-        <v>0</v>
-      </c>
-      <c r="H21" s="44">
-        <v>0</v>
-      </c>
-      <c r="I21" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="220.5">
-      <c r="A23" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="180">
-      <c r="A24" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="37">
-        <v>59.95</v>
-      </c>
-      <c r="C33" s="37">
-        <v>59.95</v>
-      </c>
-      <c r="D33" s="37">
-        <v>59.95</v>
-      </c>
-      <c r="E33" s="37">
-        <v>59.95</v>
-      </c>
-      <c r="F33" s="38">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G33" s="38">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="H33" s="38">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I33" s="38">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="37">
-        <v>0</v>
-      </c>
-      <c r="C34" s="41">
-        <v>0</v>
-      </c>
-      <c r="D34" s="41">
-        <v>0</v>
-      </c>
-      <c r="E34" s="41">
-        <v>0</v>
-      </c>
-      <c r="F34" s="43">
-        <v>0</v>
-      </c>
-      <c r="G34" s="44">
-        <v>0</v>
-      </c>
-      <c r="H34" s="44">
-        <v>0</v>
-      </c>
-      <c r="I34" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="33">
-        <v>3</v>
-      </c>
-      <c r="C35" s="33">
-        <v>3</v>
-      </c>
-      <c r="D35" s="33">
-        <v>3</v>
-      </c>
-      <c r="E35" s="33">
-        <v>3</v>
-      </c>
-      <c r="F35" s="34">
-        <v>3</v>
-      </c>
-      <c r="G35" s="35">
-        <v>3</v>
-      </c>
-      <c r="H35" s="35">
-        <v>3</v>
-      </c>
-      <c r="I35" s="35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="220.5">
-      <c r="A37" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="H37" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="I37" s="46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="180">
-      <c r="A38" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="H38" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" s="48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="173.25">
-      <c r="A39" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" s="48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-    </row>
-    <row r="42" spans="1:9" ht="47.25">
-      <c r="A42" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="I42" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="31.5">
-      <c r="A43" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="G43" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="I43" s="51" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="I47" s="35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="H48" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="I48" s="35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75">
-      <c r="A49" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="33">
-        <v>3</v>
-      </c>
-      <c r="C49" s="33">
-        <v>3</v>
-      </c>
-      <c r="D49" s="33">
-        <v>3</v>
-      </c>
-      <c r="E49" s="33">
-        <v>3</v>
-      </c>
-      <c r="F49" s="34">
-        <v>3</v>
-      </c>
-      <c r="G49" s="35">
-        <v>3</v>
-      </c>
-      <c r="H49" s="35">
-        <v>3</v>
-      </c>
-      <c r="I49" s="35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75">
-      <c r="A50" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75">
-      <c r="A51" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B51" s="37">
-        <v>59.95</v>
-      </c>
-      <c r="C51" s="37">
-        <v>59.95</v>
-      </c>
-      <c r="D51" s="37">
-        <v>59.95</v>
-      </c>
-      <c r="E51" s="37">
-        <v>59.95</v>
-      </c>
-      <c r="F51" s="38">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G51" s="38">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="H51" s="38">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I51" s="38">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75">
-      <c r="A52" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B52" s="41">
-        <v>3.99</v>
-      </c>
-      <c r="C52" s="41">
-        <v>3.99</v>
-      </c>
-      <c r="D52" s="41">
-        <v>3.99</v>
-      </c>
-      <c r="E52" s="41">
-        <v>3.99</v>
-      </c>
-      <c r="F52" s="43">
-        <v>3.99</v>
-      </c>
-      <c r="G52" s="43">
-        <v>3.99</v>
-      </c>
-      <c r="H52" s="43">
-        <v>3.99</v>
-      </c>
-      <c r="I52" s="43">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75">
-      <c r="A53" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="H53" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="I53" s="35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.75">
-      <c r="A54" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="H54" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="I54" s="35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75">
-      <c r="A55" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="I55" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75">
-      <c r="A56" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" s="52">
-        <v>3</v>
-      </c>
-      <c r="C56" s="52">
-        <v>3</v>
-      </c>
-      <c r="D56" s="52">
-        <v>3</v>
-      </c>
-      <c r="E56" s="52">
-        <v>3</v>
-      </c>
-      <c r="F56" s="45">
-        <v>3</v>
-      </c>
-      <c r="G56" s="46">
-        <v>3</v>
-      </c>
-      <c r="H56" s="46">
-        <v>3</v>
-      </c>
-      <c r="I56" s="46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A57" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="10"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75">
-      <c r="A58" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75">
-      <c r="A59" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75">
-      <c r="A60" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75">
-      <c r="A61" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75">
-      <c r="A62" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75">
-      <c r="A63" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75">
-      <c r="A64" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-    </row>
-    <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-    </row>
-    <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-    </row>
-    <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-    </row>
-    <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-    </row>
-    <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-    </row>
-    <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-    </row>
-    <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-    </row>
-    <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-    </row>
-    <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-    </row>
-    <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-    </row>
-    <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-    </row>
-    <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B97" s="33"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-    </row>
-    <row r="98" spans="1:9" ht="15.75">
-      <c r="A98" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-    </row>
-    <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
-    </row>
-    <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="44"/>
-    </row>
-    <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
-    </row>
-    <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
-    </row>
-    <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="57"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="59"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
-    </row>
-    <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="B104" s="60"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A57:I57"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{459FBFF0-5B2F-41BB-B933-5BD21A4C2CA5}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{8526C78A-95C3-4A79-BAAC-6268C2727BBA}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{91BBFEE6-6B57-4E98-9CA2-4F91E94B9FB0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90854493-3680-436C-A003-366E543DE37E}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3762,183 +1740,185 @@
         <v>18</v>
       </c>
       <c r="B7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="E7" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="M7" s="28" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="I8" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="K8" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="L8" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="M8" s="70" t="s">
-        <v>187</v>
+        <v>32</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="64" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="15.75">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="71" t="s">
-        <v>189</v>
+        <v>40</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="65" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="15.75">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="9" customFormat="1" ht="15.75">
-      <c r="A11" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
+      <c r="A11" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="68"/>
     </row>
     <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="30" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B12" s="31">
         <v>1</v>
@@ -3979,130 +1959,130 @@
     </row>
     <row r="13" spans="1:13" ht="15.75">
       <c r="A13" s="26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75">
       <c r="A14" s="26" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75">
       <c r="A15" s="26" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="26" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -4119,48 +2099,48 @@
     </row>
     <row r="17" spans="1:13" ht="15.75">
       <c r="A17" s="26" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75">
       <c r="A18" s="26" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B18" s="33">
         <v>1</v>
@@ -4201,7 +2181,7 @@
     </row>
     <row r="19" spans="1:13" s="40" customFormat="1" ht="15.75">
       <c r="A19" s="36" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -4218,7 +2198,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="26" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B20" s="41">
         <v>59.95</v>
@@ -4259,7 +2239,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.75">
       <c r="A21" s="26" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B21" s="41">
         <v>0</v>
@@ -4300,212 +2280,212 @@
     </row>
     <row r="22" spans="1:13" ht="15.75">
       <c r="A22" s="26" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="220.5">
       <c r="A23" s="26" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I23" s="46" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K23" s="46" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="L23" s="46" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="M23" s="46" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="180">
       <c r="A24" s="26" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J24" s="47" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K24" s="48" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="L24" s="48" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="M24" s="48" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75">
       <c r="A25" s="26" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
       <c r="A26" s="26" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L26" s="35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="M26" s="35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75">
       <c r="A27" s="26" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="61"/>
@@ -4522,7 +2502,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.75">
       <c r="A28" s="26" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="61"/>
@@ -4539,7 +2519,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.75">
       <c r="A29" s="26" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="61"/>
@@ -4556,7 +2536,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="26" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="61"/>
@@ -4573,89 +2553,89 @@
     </row>
     <row r="31" spans="1:13" ht="15.75">
       <c r="A31" s="26" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="L31" s="35" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M31" s="35" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75">
       <c r="A32" s="26" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="M32" s="35" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75">
       <c r="A33" s="36" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B33" s="37">
         <v>59.95</v>
@@ -4696,7 +2676,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.75">
       <c r="A34" s="26" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B34" s="41">
         <v>0</v>
@@ -4737,7 +2717,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.75">
       <c r="A35" s="26" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B35" s="33">
         <v>3</v>
@@ -4778,212 +2758,212 @@
     </row>
     <row r="36" spans="1:13" ht="15.75">
       <c r="A36" s="26" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I36" s="44" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="J36" s="43" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="K36" s="44" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="L36" s="44" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="M36" s="44" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="220.5">
       <c r="A37" s="26" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I37" s="46" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="J37" s="45" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="K37" s="46" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="L37" s="46" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="M37" s="46" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="180">
       <c r="A38" s="26" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I38" s="48" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="J38" s="47" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="K38" s="48" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="L38" s="48" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="M38" s="48" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="173.25">
       <c r="A39" s="26" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="I39" s="48" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="J39" s="47" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="K39" s="48" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="L39" s="48" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M39" s="48" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75">
       <c r="A40" s="26" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M40" s="35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75">
       <c r="A41" s="26" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="50"/>
@@ -5000,130 +2980,130 @@
     </row>
     <row r="42" spans="1:13" ht="47.25">
       <c r="A42" s="26" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D42" s="50" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="I42" s="43" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="J42" s="43" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="K42" s="43" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="L42" s="43" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="M42" s="43" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="31.5">
       <c r="A43" s="26" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D43" s="50" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="H43" s="51" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I43" s="51" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J43" s="51" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K43" s="51" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="L43" s="51" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="M43" s="51" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75">
       <c r="A44" s="26" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I44" s="35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J44" s="35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L44" s="35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="M44" s="35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75">
       <c r="A45" s="26" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -5140,7 +3120,7 @@
     </row>
     <row r="46" spans="1:13" ht="15.75">
       <c r="A46" s="26" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -5157,89 +3137,89 @@
     </row>
     <row r="47" spans="1:13" ht="15.75">
       <c r="A47" s="26" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="I47" s="35" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="L47" s="35" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="M47" s="35" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75">
       <c r="A48" s="26" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C48" s="61" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="G48" s="61" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="K48" s="35" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L48" s="35" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="M48" s="35" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75">
       <c r="A49" s="26" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B49" s="33">
         <v>3</v>
@@ -5280,7 +3260,7 @@
     </row>
     <row r="50" spans="1:14" ht="15.75">
       <c r="A50" s="26" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -5297,7 +3277,7 @@
     </row>
     <row r="51" spans="1:14" ht="15.75">
       <c r="A51" s="36" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B51" s="37">
         <v>59.95</v>
@@ -5338,7 +3318,7 @@
     </row>
     <row r="52" spans="1:14" ht="15.75">
       <c r="A52" s="26" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B52" s="41">
         <v>3.99</v>
@@ -5379,130 +3359,130 @@
     </row>
     <row r="53" spans="1:14" ht="15.75">
       <c r="A53" s="26" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="I53" s="35" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="J53" s="34" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="L53" s="35" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="M53" s="35" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75">
       <c r="A54" s="26" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="H54" s="35" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="I54" s="35" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="J54" s="34" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="K54" s="35" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="L54" s="35" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="M54" s="35" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75">
       <c r="A55" s="26" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="H55" s="35" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="I55" s="35" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="J55" s="34" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="K55" s="35" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="L55" s="35" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="M55" s="35" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75">
       <c r="A56" s="2" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B56" s="52">
         <v>3</v>
@@ -5542,26 +3522,26 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="1" customFormat="1" ht="15.75">
-      <c r="A57" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="69"/>
+      <c r="A57" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="71"/>
       <c r="N57" s="10"/>
     </row>
     <row r="58" spans="1:14" ht="15.75">
       <c r="A58" s="53" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B58" s="53"/>
       <c r="C58" s="53"/>
@@ -5578,7 +3558,7 @@
     </row>
     <row r="59" spans="1:14" ht="15.75">
       <c r="A59" s="26" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
@@ -5595,7 +3575,7 @@
     </row>
     <row r="60" spans="1:14" ht="15.75">
       <c r="A60" s="26" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
@@ -5612,7 +3592,7 @@
     </row>
     <row r="61" spans="1:14" ht="15.75">
       <c r="A61" s="26" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
@@ -5629,7 +3609,7 @@
     </row>
     <row r="62" spans="1:14" ht="15.75">
       <c r="A62" s="26" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
@@ -5646,7 +3626,7 @@
     </row>
     <row r="63" spans="1:14" ht="15.75">
       <c r="A63" s="26" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
@@ -5663,7 +3643,7 @@
     </row>
     <row r="64" spans="1:14" ht="15.75">
       <c r="A64" s="26" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
@@ -5680,7 +3660,7 @@
     </row>
     <row r="65" spans="1:13" ht="15.75">
       <c r="A65" s="26" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
@@ -5697,7 +3677,7 @@
     </row>
     <row r="66" spans="1:13" ht="15.75">
       <c r="A66" s="26" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
@@ -5714,7 +3694,7 @@
     </row>
     <row r="67" spans="1:13" ht="15.75">
       <c r="A67" s="26" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
@@ -5731,7 +3711,7 @@
     </row>
     <row r="68" spans="1:13" ht="15.75">
       <c r="A68" s="26" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
@@ -5748,7 +3728,7 @@
     </row>
     <row r="69" spans="1:13" ht="15.75">
       <c r="A69" s="26" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
@@ -5765,7 +3745,7 @@
     </row>
     <row r="70" spans="1:13" ht="15.75">
       <c r="A70" s="26" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
@@ -5782,7 +3762,7 @@
     </row>
     <row r="71" spans="1:13" ht="15.75">
       <c r="A71" s="26" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="26"/>
@@ -5799,7 +3779,7 @@
     </row>
     <row r="72" spans="1:13" ht="15.75">
       <c r="A72" s="26" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="26"/>
@@ -5816,7 +3796,7 @@
     </row>
     <row r="73" spans="1:13" ht="15.75">
       <c r="A73" s="26" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
@@ -5833,7 +3813,7 @@
     </row>
     <row r="74" spans="1:13" ht="15.75">
       <c r="A74" s="26" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
@@ -5850,7 +3830,7 @@
     </row>
     <row r="75" spans="1:13" ht="15.75">
       <c r="A75" s="26" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
@@ -5867,7 +3847,7 @@
     </row>
     <row r="76" spans="1:13" ht="15.75">
       <c r="A76" s="26" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
@@ -5884,7 +3864,7 @@
     </row>
     <row r="77" spans="1:13" ht="15.75">
       <c r="A77" s="26" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
@@ -5901,7 +3881,7 @@
     </row>
     <row r="78" spans="1:13" ht="15.75">
       <c r="A78" s="26" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
@@ -5918,7 +3898,7 @@
     </row>
     <row r="79" spans="1:13" ht="15.75">
       <c r="A79" s="26" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
@@ -5935,7 +3915,7 @@
     </row>
     <row r="80" spans="1:13" ht="15.75">
       <c r="A80" s="26" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
@@ -5952,7 +3932,7 @@
     </row>
     <row r="81" spans="1:13" ht="15.75">
       <c r="A81" s="26" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
@@ -5969,7 +3949,7 @@
     </row>
     <row r="82" spans="1:13" ht="15.75">
       <c r="A82" s="26" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
@@ -5986,7 +3966,7 @@
     </row>
     <row r="83" spans="1:13" ht="15.75">
       <c r="A83" s="26" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="26"/>
@@ -6003,7 +3983,7 @@
     </row>
     <row r="84" spans="1:13" ht="15.75">
       <c r="A84" s="26" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
@@ -6020,7 +4000,7 @@
     </row>
     <row r="85" spans="1:13" ht="15.75">
       <c r="A85" s="26" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="26"/>
@@ -6037,7 +4017,7 @@
     </row>
     <row r="86" spans="1:13" ht="15.75">
       <c r="A86" s="26" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
@@ -6054,7 +4034,7 @@
     </row>
     <row r="87" spans="1:13" ht="15.75">
       <c r="A87" s="26" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="26"/>
@@ -6071,7 +4051,7 @@
     </row>
     <row r="88" spans="1:13" ht="15.75">
       <c r="A88" s="26" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="26"/>
@@ -6088,7 +4068,7 @@
     </row>
     <row r="89" spans="1:13" ht="15.75">
       <c r="A89" s="26" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="26"/>
@@ -6105,7 +4085,7 @@
     </row>
     <row r="90" spans="1:13" ht="15.75">
       <c r="A90" s="26" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="26"/>
@@ -6122,7 +4102,7 @@
     </row>
     <row r="91" spans="1:13" ht="15.75">
       <c r="A91" s="26" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
@@ -6139,7 +4119,7 @@
     </row>
     <row r="92" spans="1:13" ht="15.75">
       <c r="A92" s="26" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="26"/>
@@ -6156,7 +4136,7 @@
     </row>
     <row r="93" spans="1:13" ht="15.75">
       <c r="A93" s="26" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="26"/>
@@ -6173,7 +4153,7 @@
     </row>
     <row r="94" spans="1:13" ht="15.75">
       <c r="A94" s="26" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="26"/>
@@ -6190,7 +4170,7 @@
     </row>
     <row r="95" spans="1:13" ht="15.75">
       <c r="A95" s="26" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="26"/>
@@ -6207,7 +4187,7 @@
     </row>
     <row r="96" spans="1:13" ht="15.75">
       <c r="A96" s="26" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="26"/>
@@ -6224,7 +4204,7 @@
     </row>
     <row r="97" spans="1:13" ht="15.75">
       <c r="A97" s="26" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
@@ -6241,7 +4221,7 @@
     </row>
     <row r="98" spans="1:13" ht="15.75">
       <c r="A98" s="26" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="26"/>
@@ -6258,7 +4238,7 @@
     </row>
     <row r="99" spans="1:13" ht="15.75">
       <c r="A99" s="26" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="26"/>
@@ -6275,7 +4255,7 @@
     </row>
     <row r="100" spans="1:13" ht="15.75">
       <c r="A100" s="26" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
@@ -6292,7 +4272,7 @@
     </row>
     <row r="101" spans="1:13" ht="15.75">
       <c r="A101" s="26" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="26"/>
@@ -6309,7 +4289,7 @@
     </row>
     <row r="102" spans="1:13" ht="15.75">
       <c r="A102" s="26" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="26"/>
@@ -6341,7 +4321,7 @@
     </row>
     <row r="104" spans="1:13" ht="15.75">
       <c r="A104" s="57" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B104" s="57"/>
       <c r="C104" s="57"/>
@@ -6370,13 +4350,2029 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="5" width="35.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="9" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="16.5">
+      <c r="A2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="21">
+        <v>602</v>
+      </c>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5">
+      <c r="A3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="21">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="29" customFormat="1" ht="31.5">
+      <c r="A7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="15.75">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="15.75">
+      <c r="A9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="15.75">
+      <c r="A10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="15.75">
+      <c r="A11" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
+      <c r="A12" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="31">
+        <v>1</v>
+      </c>
+      <c r="C12" s="31">
+        <v>1</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32">
+        <v>2</v>
+      </c>
+      <c r="G12" s="32">
+        <v>2</v>
+      </c>
+      <c r="H12" s="32">
+        <v>2</v>
+      </c>
+      <c r="I12" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="A13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75">
+      <c r="A17" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75">
+      <c r="A18" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="33">
+        <v>1</v>
+      </c>
+      <c r="C18" s="33">
+        <v>1</v>
+      </c>
+      <c r="D18" s="33">
+        <v>1</v>
+      </c>
+      <c r="E18" s="33">
+        <v>1</v>
+      </c>
+      <c r="F18" s="34">
+        <v>1</v>
+      </c>
+      <c r="G18" s="35">
+        <v>1</v>
+      </c>
+      <c r="H18" s="35">
+        <v>1</v>
+      </c>
+      <c r="I18" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="40" customFormat="1" ht="15.75">
+      <c r="A19" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
+      <c r="A20" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="41">
+        <v>59.95</v>
+      </c>
+      <c r="C20" s="42">
+        <v>59.95</v>
+      </c>
+      <c r="D20" s="41">
+        <v>59.95</v>
+      </c>
+      <c r="E20" s="41">
+        <v>59.95</v>
+      </c>
+      <c r="F20" s="43">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G20" s="44">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H20" s="44">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I20" s="44">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75">
+      <c r="A21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="41">
+        <v>0</v>
+      </c>
+      <c r="C21" s="37">
+        <v>0</v>
+      </c>
+      <c r="D21" s="41">
+        <v>0</v>
+      </c>
+      <c r="E21" s="41">
+        <v>0</v>
+      </c>
+      <c r="F21" s="43">
+        <v>0</v>
+      </c>
+      <c r="G21" s="44">
+        <v>0</v>
+      </c>
+      <c r="H21" s="44">
+        <v>0</v>
+      </c>
+      <c r="I21" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75">
+      <c r="A22" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="220.5">
+      <c r="A23" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="180">
+      <c r="A24" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75">
+      <c r="A25" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75">
+      <c r="A26" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75">
+      <c r="A27" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75">
+      <c r="A28" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75">
+      <c r="A29" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75">
+      <c r="A30" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75">
+      <c r="A31" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75">
+      <c r="A32" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75">
+      <c r="A33" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="37">
+        <v>59.95</v>
+      </c>
+      <c r="C33" s="37">
+        <v>59.95</v>
+      </c>
+      <c r="D33" s="37">
+        <v>59.95</v>
+      </c>
+      <c r="E33" s="37">
+        <v>59.95</v>
+      </c>
+      <c r="F33" s="38">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G33" s="38">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H33" s="38">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I33" s="38">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75">
+      <c r="A34" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="37">
+        <v>0</v>
+      </c>
+      <c r="C34" s="41">
+        <v>0</v>
+      </c>
+      <c r="D34" s="41">
+        <v>0</v>
+      </c>
+      <c r="E34" s="41">
+        <v>0</v>
+      </c>
+      <c r="F34" s="43">
+        <v>0</v>
+      </c>
+      <c r="G34" s="44">
+        <v>0</v>
+      </c>
+      <c r="H34" s="44">
+        <v>0</v>
+      </c>
+      <c r="I34" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75">
+      <c r="A35" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="33">
+        <v>3</v>
+      </c>
+      <c r="C35" s="33">
+        <v>3</v>
+      </c>
+      <c r="D35" s="33">
+        <v>3</v>
+      </c>
+      <c r="E35" s="33">
+        <v>3</v>
+      </c>
+      <c r="F35" s="34">
+        <v>3</v>
+      </c>
+      <c r="G35" s="35">
+        <v>3</v>
+      </c>
+      <c r="H35" s="35">
+        <v>3</v>
+      </c>
+      <c r="I35" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75">
+      <c r="A36" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="220.5">
+      <c r="A37" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="180">
+      <c r="A38" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="173.25">
+      <c r="A39" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75">
+      <c r="A40" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75">
+      <c r="A41" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+    </row>
+    <row r="42" spans="1:9" ht="47.25">
+      <c r="A42" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="31.5">
+      <c r="A43" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75">
+      <c r="A44" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I44" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75">
+      <c r="A45" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75">
+      <c r="A46" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75">
+      <c r="A47" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75">
+      <c r="A48" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75">
+      <c r="A49" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="33">
+        <v>3</v>
+      </c>
+      <c r="C49" s="33">
+        <v>3</v>
+      </c>
+      <c r="D49" s="33">
+        <v>3</v>
+      </c>
+      <c r="E49" s="33">
+        <v>3</v>
+      </c>
+      <c r="F49" s="34">
+        <v>3</v>
+      </c>
+      <c r="G49" s="35">
+        <v>3</v>
+      </c>
+      <c r="H49" s="35">
+        <v>3</v>
+      </c>
+      <c r="I49" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75">
+      <c r="A50" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75">
+      <c r="A51" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="37">
+        <v>59.95</v>
+      </c>
+      <c r="C51" s="37">
+        <v>59.95</v>
+      </c>
+      <c r="D51" s="37">
+        <v>59.95</v>
+      </c>
+      <c r="E51" s="37">
+        <v>59.95</v>
+      </c>
+      <c r="F51" s="38">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G51" s="38">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H51" s="38">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I51" s="38">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75">
+      <c r="A52" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="41">
+        <v>3.99</v>
+      </c>
+      <c r="C52" s="41">
+        <v>3.99</v>
+      </c>
+      <c r="D52" s="41">
+        <v>3.99</v>
+      </c>
+      <c r="E52" s="41">
+        <v>3.99</v>
+      </c>
+      <c r="F52" s="43">
+        <v>3.99</v>
+      </c>
+      <c r="G52" s="43">
+        <v>3.99</v>
+      </c>
+      <c r="H52" s="43">
+        <v>3.99</v>
+      </c>
+      <c r="I52" s="43">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75">
+      <c r="A53" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="I53" s="35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75">
+      <c r="A54" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="I54" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75">
+      <c r="A55" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="I55" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75">
+      <c r="A56" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="52">
+        <v>3</v>
+      </c>
+      <c r="C56" s="52">
+        <v>3</v>
+      </c>
+      <c r="D56" s="52">
+        <v>3</v>
+      </c>
+      <c r="E56" s="52">
+        <v>3</v>
+      </c>
+      <c r="F56" s="45">
+        <v>3</v>
+      </c>
+      <c r="G56" s="46">
+        <v>3</v>
+      </c>
+      <c r="H56" s="46">
+        <v>3</v>
+      </c>
+      <c r="I56" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="1" customFormat="1" ht="15.75">
+      <c r="A57" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75">
+      <c r="A58" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75">
+      <c r="A59" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75">
+      <c r="A60" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="33"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75">
+      <c r="A61" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75">
+      <c r="A62" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75">
+      <c r="A63" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75">
+      <c r="A64" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75">
+      <c r="A65" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75">
+      <c r="A66" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75">
+      <c r="A67" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="41"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75">
+      <c r="A68" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75">
+      <c r="A69" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75">
+      <c r="A70" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75">
+      <c r="A71" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75">
+      <c r="A72" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75">
+      <c r="A73" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75">
+      <c r="A74" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75">
+      <c r="A75" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75">
+      <c r="A76" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75">
+      <c r="A77" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75">
+      <c r="A78" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75">
+      <c r="A79" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75">
+      <c r="A80" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75">
+      <c r="A81" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.75">
+      <c r="A82" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.75">
+      <c r="A83" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75">
+      <c r="A84" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75">
+      <c r="A85" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.75">
+      <c r="A86" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75">
+      <c r="A87" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.75">
+      <c r="A88" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75">
+      <c r="A89" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75">
+      <c r="A90" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75">
+      <c r="A91" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75">
+      <c r="A92" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75">
+      <c r="A93" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75">
+      <c r="A94" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.75">
+      <c r="A95" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75">
+      <c r="A96" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75">
+      <c r="A97" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75">
+      <c r="A98" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75">
+      <c r="A99" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75">
+      <c r="A100" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75">
+      <c r="A101" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.75">
+      <c r="A102" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.75">
+      <c r="A103" s="57"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.75">
+      <c r="A104" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="60"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A57:I57"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{459FBFF0-5B2F-41BB-B933-5BD21A4C2CA5}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{8526C78A-95C3-4A79-BAAC-6268C2727BBA}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{91BBFEE6-6B57-4E98-9CA2-4F91E94B9FB0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -6541,7 +6537,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6550,14 +6546,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
 </file>